--- a/docs/HCD/USG Playbook Checklist.xlsx
+++ b/docs/HCD/USG Playbook Checklist.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vancel\Documents\Dropbox\ads-geo\git\18f-prototype\docs\HCD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25940" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
   <si>
     <t>Understand what people need</t>
   </si>
@@ -416,9 +411,6 @@
     <t xml:space="preserve">Backlog is continuously groomed in Scrum Do. It features sprint backlog, defect backlog, and product backlog. </t>
   </si>
   <si>
-    <t>Git</t>
-  </si>
-  <si>
     <t xml:space="preserve">Team used first weekend to research and prototype. Vance was retained to perform that prototype. </t>
   </si>
   <si>
@@ -435,9 +427,6 @@
   </si>
   <si>
     <t xml:space="preserve">Keith is granted authority over the use of resources and is solely responsible for the quality of this product. </t>
-  </si>
-  <si>
-    <t>Refer to resumes?</t>
   </si>
   <si>
     <t>AngularJS JS/UI Framework MIT
@@ -475,9 +464,6 @@
     <t>Future Enhancement</t>
   </si>
   <si>
-    <t>RFP Prototype, Does not apply</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deployment scripts used in CI. Will need to build out for production.  </t>
   </si>
   <si>
@@ -493,9 +479,6 @@
     <t xml:space="preserve">Government owns the source data.  OpenFDA. </t>
   </si>
   <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
     <t xml:space="preserve">Published via GitHub. This GitHub project is open. </t>
   </si>
   <si>
@@ -527,6 +510,39 @@
   </si>
   <si>
     <t>PMP, Attachment C is our budget, funding is internal, approved by ORB process</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub --&gt; docs/scrum/sprint*</t>
+  </si>
+  <si>
+    <t>Tyler Sanders for DevOPs Lead</t>
+  </si>
+  <si>
+    <t>Aaron and Josh lead this effort</t>
+  </si>
+  <si>
+    <t>Tyler and Josh lead this effort to train team on Protractor</t>
+  </si>
+  <si>
+    <t>Tyler Sanders for DevOPs Lead: using AWS, docker, jenkins</t>
+  </si>
+  <si>
+    <t>Utilizing Docker for container so we are only limited to hardware/OS that can support Docker</t>
+  </si>
+  <si>
+    <t>OpenSource Software. License on GitHub</t>
+  </si>
+  <si>
+    <t>No data is collected from site inputs</t>
+  </si>
+  <si>
+    <t>No personal info is collected or stored</t>
+  </si>
+  <si>
+    <t>Jenkins auto deploys 'integration' (dev) builds to 'ads-dev' while 'master' is deployed to 'asd.geocent.com'</t>
   </si>
 </sst>
 </file>
@@ -589,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,12 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +640,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -672,8 +682,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -692,10 +714,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -716,6 +737,12 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -736,6 +763,12 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1075,18 +1108,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="87.375" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -1103,7 +1136,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1111,15 +1144,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="31.5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1160,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="31.5">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1192,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="21">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
@@ -1176,42 +1209,42 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="31.5">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="21">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1228,7 +1261,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1244,15 +1277,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1260,31 +1293,31 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21">
       <c r="A25" s="2" t="s">
         <v>105</v>
       </c>
@@ -1301,7 +1334,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="47.25">
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="31.5">
       <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1317,7 +1350,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="31.5">
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
@@ -1325,7 +1358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="31.5">
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1366,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1349,32 +1382,34 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="21">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -1391,82 +1426,82 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="B37" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31.5">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="31.5">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="31.5">
       <c r="B43" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="31.5">
       <c r="B44" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="21">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
@@ -1483,50 +1518,50 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="31.5">
       <c r="B49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="31.5">
       <c r="B50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="21">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -1543,68 +1578,74 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="B55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C57" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="31.5">
       <c r="B58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="12"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="21">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
@@ -1621,40 +1662,42 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="157.5">
       <c r="B65" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C66" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="31.5">
       <c r="B67" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="18.75">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -1671,63 +1714,63 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
         <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
         <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
         <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
         <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="21">
       <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
@@ -1744,47 +1787,50 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="B80" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="B81" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="B82" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31.5">
       <c r="B83" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="B84" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="18.75">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -1795,58 +1841,58 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="31.5">
       <c r="B87" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="31.5">
       <c r="B88" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="47.25">
       <c r="B89" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="31.5">
       <c r="B90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="B91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="31.5">
       <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="18.75">
       <c r="A94" s="1" t="s">
         <v>113</v>
       </c>
@@ -1857,50 +1903,50 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="B95" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="B96" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="B97" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="B98" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="31.5">
       <c r="B99" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="B100" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="B101" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="B102" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="18.75">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -1911,79 +1957,79 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="B105" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C105" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30">
       <c r="B106" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C106" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="31.5">
       <c r="B107" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="31.5">
       <c r="B108" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="31.5">
       <c r="B109" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="31.5">
       <c r="B110" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="B111" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="B112" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
       <c r="B113" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3">
       <c r="B115" s="3"/>
     </row>
   </sheetData>

--- a/docs/HCD/USG Playbook Checklist.xlsx
+++ b/docs/HCD/USG Playbook Checklist.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhazelbaker\Documents\GitHub\18f-prototype\docs\HCD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25940" windowHeight="15920" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
   <si>
     <t>Understand what people need</t>
   </si>
@@ -366,67 +371,64 @@
     <t>Play 13:</t>
   </si>
   <si>
-    <t>Paper Prototype Usability Test performed 6/22</t>
-  </si>
-  <si>
-    <t>Metrics recorded, Feedback shared and registered as "issues" in github</t>
-  </si>
-  <si>
-    <t>Issues shared at sprint review which were then converted to new user stories to resolve</t>
-  </si>
-  <si>
-    <t>User Stories are created, followed, and worked in the Scrum Do project management tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple tests with users beginning with paper prototype, then when working prototype is created, moving into that phase. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainstorming session with larger team. We included people from the company who have had greater interest in pharmaceuticals for health purposes. </t>
-  </si>
-  <si>
-    <t>Style Guide created, easily updated</t>
-  </si>
-  <si>
     <t xml:space="preserve">No related digital services created as of submission date. </t>
   </si>
   <si>
-    <t>508 compliant</t>
-  </si>
-  <si>
-    <t>Working prototype on 2nd day</t>
-  </si>
-  <si>
-    <t>Executed paper prototype and functional prototype usability tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kickoff meeting, daily standup, working conference room, and Skype are all tools used by the team. </t>
-  </si>
-  <si>
-    <t>Team has direct access to product owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 sprint releases in the span of 1 week. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backlog is continuously groomed in Scrum Do. It features sprint backlog, defect backlog, and product backlog. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team used first weekend to research and prototype. Vance was retained to perform that prototype. </t>
-  </si>
-  <si>
-    <t>No contract, but sprints were divided into 2 day periods</t>
-  </si>
-  <si>
     <t>No contract</t>
   </si>
   <si>
-    <t xml:space="preserve">Keith Alphonso is product owner. He remains active and engaged. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keith is CTO of Geocent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keith is granted authority over the use of resources and is solely responsible for the quality of this product. </t>
+    <t>Fully open source</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Future enhancement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protractor is used for E2E testing against the browser. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data is from OpenFDA, limited to FDA ToS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government owns the source data.  OpenFDA. </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collected Quantitative data during the usability tests by measuring time to completion, error rates, clicks to completion. Qualitative data collected in notes and observations. </t>
+  </si>
+  <si>
+    <t>Future Enhancement -- "Save List"</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub --&gt; docs/scrum/sprint*</t>
+  </si>
+  <si>
+    <t>Utilizing Docker for container so we are only limited to hardware/OS that can support Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kick-off meeting, daily Stand-up, Sprint Planning, Sprint Review and Retrospective, GitHub chat room, notifications through GitHub, Skype, and dedicated working conference room are all tools used by the team. </t>
+  </si>
+  <si>
+    <t>Each team member has a specific focus area on the project as defined in the organizational diagram; in addition, team has direct access to Product Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Alphonso is Product Owner. He remains active and engaged. </t>
+  </si>
+  <si>
+    <t>Tyler Sanders is the DevOPs Lead</t>
+  </si>
+  <si>
+    <t>Tyler Sanders as the DevOPs Lead implemented CI and continuous development using AWS, Docker, and Jenkins.</t>
+  </si>
+  <si>
+    <t>Protractor and  Karma were used as automated testing tools. All team members have experience with Karma. Tyler Sanders and Josh Penton lead the effort to train team on Protractor.</t>
   </si>
   <si>
     <t>AngularJS JS/UI Framework MIT
@@ -434,115 +436,126 @@
 Bootstrap Responsive UI MIT
 Gulp Automated Build/Workflow MIT
 Protractor E2E Testing MIT
-NVM Node Versioning Manager for local Devleopment Environment MIT
-D3 JS Used for charts and data driven documents AS IS
+NVM Node Versioning Manager for local Development Environment MIT
+D3 JS Used for charts and data driven documents AS-IS
 NVD3 Reusable charts component for D3 Apache
+Angular-NVD3 Reusable charting library MIT
+Moment.js Cross browser data processing and formatting MIT
+Underscore JavaScript library that provides useful functional programming helpers without extending any built-in objects MIT
+Jenkins Continuous Integration MIT
+NGINX Web Proxy AS-IS
 Style-Guide-Boilerplate-Bootstrap-Edition Generate Style Guide MIT</t>
   </si>
   <si>
-    <t xml:space="preserve">Readme-dev is on github and has been tested by other devs as successful as they come into the project. Any discrepancies are addressed by updating the readme if applicable. </t>
-  </si>
-  <si>
-    <t>Fully open source</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Future enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protractor is used for E2E testing against the browser. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docker and Gulp </t>
-  </si>
-  <si>
-    <t>Karma used for unit tests / Protracter used for integration tests</t>
-  </si>
-  <si>
-    <t>Future Enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment scripts used in CI. Will need to build out for production.  </t>
-  </si>
-  <si>
-    <t>Once Github is open, link this to ask users to report through the issues tracker</t>
-  </si>
-  <si>
-    <t>This app uses the OpenFDA dataset. Refer to that should get a win here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data is from OpenFDA, limited to FDA ToS. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government owns the source data.  OpenFDA. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Published via GitHub. This GitHub project is open. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be shared as a response to this RFP. </t>
-  </si>
-  <si>
-    <t>Competetive Analysis, Paper Prototype Usability Test</t>
-  </si>
-  <si>
-    <t>Paper Prototype Usability Test, Working Prototype Usability Test</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collected Quantitative data during the usability tests by measuring time to completion, error rates, clicks to completion. Qualitative data collected in notes and observations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used medical consumer language when identifying data points. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability Tests did not reveal a "lost" scenario. </t>
-  </si>
-  <si>
-    <t>Future Enhancement -- "Save List"</t>
+    <t>The work plan is detailed in the Program Management Plan (PMP). Attachment C details our budget. Funding is internal and approved by Geocent's Executive Team referred to as Opportunity Review Board (ORB) process.</t>
+  </si>
+  <si>
+    <t>Brainstorming session with larger team. We included people from the company who have had greater interest in pharmaceuticals for health purposes. Discussed concept ideas with medical professionals and non-medical professionals.</t>
+  </si>
+  <si>
+    <t>Feedback/Issues were shared at Sprint Review which were then converted to new user stories in ScrumDo to resolve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style Guide was created  and easily updated as the prototype evolved based on user feedback. </t>
+  </si>
+  <si>
+    <t>Used medical consumer language when identifying data points.</t>
   </si>
   <si>
     <t xml:space="preserve">Language is consistent. </t>
   </si>
   <si>
-    <t>PMP, Attachment C is our budget, funding is internal, approved by ORB process</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>GitHub --&gt; docs/scrum/sprint*</t>
-  </si>
-  <si>
-    <t>Tyler Sanders for DevOPs Lead</t>
-  </si>
-  <si>
-    <t>Aaron and Josh lead this effort</t>
-  </si>
-  <si>
-    <t>Tyler and Josh lead this effort to train team on Protractor</t>
-  </si>
-  <si>
-    <t>Tyler Sanders for DevOPs Lead: using AWS, docker, jenkins</t>
-  </si>
-  <si>
-    <t>Utilizing Docker for container so we are only limited to hardware/OS that can support Docker</t>
-  </si>
-  <si>
-    <t>OpenSource Software. License on GitHub</t>
-  </si>
-  <si>
-    <t>No data is collected from site inputs</t>
-  </si>
-  <si>
-    <t>No personal info is collected or stored</t>
-  </si>
-  <si>
-    <t>Jenkins auto deploys 'integration' (dev) builds to 'ads-dev' while 'master' is deployed to 'asd.geocent.com'</t>
+    <t>Created a working prototype on 2nd day.</t>
+  </si>
+  <si>
+    <t>Executed usability test team review of paper prototype (Mock-up) - adjusted design based on feedback; initiated functional prototype of working product usability tests after each Sprint - recorded bugs and enhancements as issues in GitHub; usability test team consisted of medical professionals and non-medical professionals</t>
+  </si>
+  <si>
+    <t>No contract, however but Sprints were divided into 2-business day periods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Alphonso is granted authority over the use of resources and is solely responsible for the quality of this product. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Alphonso is Geocent's Chief Technology Officer. </t>
+  </si>
+  <si>
+    <t>Aaron Whitney and Josh Penton lead the mobile and web application  effort.</t>
+  </si>
+  <si>
+    <t>This was identified as a future enhancement.</t>
+  </si>
+  <si>
+    <t>Docker and Gulp were used for automatic testing during build process and provided notifications via email of build success or failure.</t>
+  </si>
+  <si>
+    <t>Jenkins used as auto deploys 'integration' (dev) builds to 'ads-dev' while 'master' was deployed to 'asd.geocent.com'.</t>
+  </si>
+  <si>
+    <t>No data is collected from site inputs.</t>
+  </si>
+  <si>
+    <t>Used OpenSource Software and License on GitHub.</t>
+  </si>
+  <si>
+    <t>No personal info is collected or stored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment scripts used in CI and were built out for production.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This application uses the OpenFDA dataset. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Published all source code via GitHub. Opened the GitHub project on 6/22. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All responses to this RFP to include GitHub access and export of ScrumDo artifacts to GitHub will be provided. </t>
+  </si>
+  <si>
+    <t>Identified as a Future Enhancement.</t>
+  </si>
+  <si>
+    <t>Reviewed prototype in terms of 508 compliant requirements and adjusted the working prototype as appropriately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To support timeframe, conducted 4 Sprint releases and one Stabilization Sprint in the span of project timeline (2 weeks). </t>
+  </si>
+  <si>
+    <t>Feature backlog is stored in ScrumDo and included Product Backlog and each Sprint Backlog; This is used for development, defects, and enhancements through all Sprints until Stabilization. For Stabilization and Delivery Sprints, Bug Backlog is stored in GitHub as 'issues' and includes both bugs/defects and enhancements. This allowed for real-time fixing and tracking of bugs/enhancements during the final stage of software stabilization. Backlog is continuously groomed in ScrumDo and GitHub for prioritization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team used first weekend to research and design prototype. Vance Lowe was retained to perform that UI/UX Mock-up prototype design and 508 compliant assessment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readme-dev is on GitHub and has been tested by other devs as successful as they come into the project. Any discrepancies are addressed by updating the readme if applicable. </t>
+  </si>
+  <si>
+    <t>Karma used for unit tests / Protractor used for integration tests.</t>
+  </si>
+  <si>
+    <t>Paper Prototype (Mock-up) under went usability test, performed 6/22.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple tests with users beginning with paper prototype (mock-up), then when working prototype was created at each Sprint, performed usability tests. </t>
+  </si>
+  <si>
+    <t>Competitive Analysis, Paper Prototype (Mock-up) usability test, working prototype test during each Sprint iteration</t>
+  </si>
+  <si>
+    <t>Paper Prototype(Mock-up) usability test, Working Prototype usability test identified enhancements and bugs that were created into user stories and prioritized into Sprints.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability tests did not reveal a "lost" scenario. </t>
+  </si>
+  <si>
+    <t>User stories were created, followed, and worked in the ScrumDo.</t>
+  </si>
+  <si>
+    <t>Metrics form Mock-up usability test were recorded, feedback shared and registered as new user stories in ScrumDo (project management tool) and prioritized into Sprints. During Stabilization and Delivery Sprints, usability test feedback was created as "issues" in GitHub and labeled as bugs or enhancements, then prioritized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability testers were outside of the development environment, therefore, issues/bugs/enhancements were reported to the Usability test coordinator. The usability test coordinator discussed issues with Scrum Master and Product Owner. During Sprints, issues/bugs/enhancements were entered into ScrumDo and tracked by user stories. During Sprint Stabilization issues were entered into GitHub, labeled, prioritized, worked, and tracked. </t>
   </si>
 </sst>
 </file>
@@ -605,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,13 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,26 +702,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1106,935 +1132,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="58" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="31.5">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="31.5">
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="21">
+      <c r="C8" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="31.5">
-      <c r="B11" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="31.5">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31.5">
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="31.5">
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="21">
+      <c r="C14" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" t="s">
+      <c r="C17" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" t="s">
+      <c r="C18" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" t="s">
+      <c r="C19" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" t="s">
+      <c r="C20" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" t="s">
+      <c r="C21" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" t="s">
+      <c r="C22" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="21">
+      <c r="C23" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="47.25">
-      <c r="B26" s="3" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="31.5">
-      <c r="B27" s="3" t="s">
+      <c r="C26" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31.5">
-      <c r="B28" s="3" t="s">
+      <c r="C27" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="B31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="31.5">
-      <c r="B29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="21">
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="10" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="10" t="s">
+      <c r="C37" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="10" t="s">
+      <c r="C38" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="31.5">
-      <c r="B40" s="10" t="s">
+      <c r="C39" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="10" t="s">
+      <c r="C40" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="31.5">
-      <c r="B42" s="10" t="s">
+      <c r="C41" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="31.5">
-      <c r="B43" s="10" t="s">
+      <c r="C42" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="31.5">
-      <c r="B44" s="10" t="s">
+      <c r="C43" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="10" t="s">
+      <c r="C44" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" ht="21">
+      <c r="C45" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="3" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="31.5">
-      <c r="B49" s="3" t="s">
+      <c r="C48" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B49" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="31.5">
-      <c r="B50" s="3" t="s">
+      <c r="C49" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B50" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="B51" s="3" t="s">
+      <c r="C50" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="B51" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="B52" s="3" t="s">
+      <c r="C51" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="21">
+      <c r="C52" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="3" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="3" t="s">
+      <c r="C55" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B56" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="B57" s="3" t="s">
+      <c r="C56" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="31.5">
-      <c r="B58" s="3" t="s">
+      <c r="C57" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="B59" s="3" t="s">
+      <c r="C58" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" s="3" t="s">
+      <c r="C59" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="B61" s="3" t="s">
+      <c r="C60" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="B62" s="3" t="s">
+      <c r="C61" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" ht="21">
+      <c r="C62" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" ht="157.5">
-      <c r="B65" s="3" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" ht="248" x14ac:dyDescent="0.35">
+      <c r="B65" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" s="3" t="s">
+      <c r="C65" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="B66" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="31.5">
-      <c r="B67" s="3" t="s">
+      <c r="C66" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="3" t="s">
+      <c r="C67" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="18.75">
+      <c r="C68" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" t="s">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="B72" t="s">
+      <c r="C71" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="B73" t="s">
+      <c r="C72" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" t="s">
+      <c r="C73" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="B75" t="s">
+      <c r="C74" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="B76" t="s">
+      <c r="C75" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="B77" t="s">
+      <c r="C76" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="21">
+      <c r="C77" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="B80" s="3" t="s">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" s="3" t="s">
+      <c r="C80" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="B82" s="3" t="s">
+      <c r="C81" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B82" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="31.5">
-      <c r="B83" s="3" t="s">
+      <c r="C82" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B83" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="B84" s="3" t="s">
+      <c r="C83" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" ht="18.75">
+      <c r="C84" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="31.5">
-      <c r="B87" s="3" t="s">
+    <row r="87" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B87" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="31.5">
-      <c r="B88" s="3" t="s">
+      <c r="C87" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B88" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C88" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="47.25">
-      <c r="B89" s="3" t="s">
+      <c r="C88" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B89" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="31.5">
-      <c r="B90" s="3" t="s">
+      <c r="C89" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B90" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" s="3" t="s">
+      <c r="C90" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B92" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="31.5">
-      <c r="B92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" ht="18.75">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:3" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" s="3" t="s">
+      <c r="C95" s="15"/>
+    </row>
+    <row r="96" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="B97" s="3" t="s">
+      <c r="C96" s="15"/>
+    </row>
+    <row r="97" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="B98" s="3" t="s">
+      <c r="C97" s="15"/>
+    </row>
+    <row r="98" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="31.5">
-      <c r="B99" s="3" t="s">
+      <c r="C98" s="15"/>
+    </row>
+    <row r="99" spans="1:3" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="B100" s="3" t="s">
+      <c r="C99" s="15"/>
+    </row>
+    <row r="100" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101" s="3" t="s">
+      <c r="C100" s="15"/>
+    </row>
+    <row r="101" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="B102" s="3" t="s">
+      <c r="C101" s="15"/>
+    </row>
+    <row r="102" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" ht="18.75">
+      <c r="C102" s="15"/>
+    </row>
+    <row r="104" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="B105" s="3" t="s">
+    <row r="105" spans="1:3" s="8" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="B105" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="30">
-      <c r="B106" s="3" t="s">
+      <c r="C105" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B106" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="31.5">
-      <c r="B107" s="3" t="s">
+      <c r="C106" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B107" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="31.5">
-      <c r="B108" s="3" t="s">
+      <c r="C107" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B108" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C108" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="31.5">
-      <c r="B109" s="3" t="s">
+      <c r="C108" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B109" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="31.5">
-      <c r="B110" s="3" t="s">
+      <c r="C109" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B110" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="B111" s="3" t="s">
+      <c r="C110" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="B112" s="3" t="s">
+      <c r="C111" s="15"/>
+    </row>
+    <row r="112" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B112" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="3" t="s">
+      <c r="C112" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B113" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C113" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="3"/>
+      <c r="C113" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/HCD/USG Playbook Checklist.xlsx
+++ b/docs/HCD/USG Playbook Checklist.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhazelbaker\Documents\GitHub\18f-prototype\docs\HCD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25940" windowHeight="15920" tabRatio="500"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>Understand what people need</t>
   </si>
@@ -381,9 +376,6 @@
   </si>
   <si>
     <t>AWS</t>
-  </si>
-  <si>
-    <t>Future enhancement</t>
   </si>
   <si>
     <t xml:space="preserve">Protractor is used for E2E testing against the browser. </t>
@@ -501,9 +493,6 @@
     <t>No personal info is collected or stored.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deployment scripts used in CI and were built out for production.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">This application uses the OpenFDA dataset. </t>
   </si>
   <si>
@@ -556,6 +545,18 @@
   </si>
   <si>
     <t xml:space="preserve">Usability testers were outside of the development environment, therefore, issues/bugs/enhancements were reported to the Usability test coordinator. The usability test coordinator discussed issues with Scrum Master and Product Owner. During Sprints, issues/bugs/enhancements were entered into ScrumDo and tracked by user stories. During Sprint Stabilization issues were entered into GitHub, labeled, prioritized, worked, and tracked. </t>
+  </si>
+  <si>
+    <t>SoapUI test results exist in the Sprint Stabilzation</t>
+  </si>
+  <si>
+    <t>Deployment scripts use for CI and production. Located under devops/containers</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch used</t>
+  </si>
+  <si>
+    <t>exports are possoble but not needed for this effort</t>
   </si>
 </sst>
 </file>
@@ -1134,18 +1135,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="87.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="58" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -1162,63 +1163,63 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="62">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="46.5">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="77.5">
       <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31">
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="46.5">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
@@ -1235,39 +1236,39 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="31">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="46.5">
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31">
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1284,15 +1285,15 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="31">
       <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1300,47 +1301,47 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31">
       <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21">
       <c r="A25" s="2" t="s">
         <v>105</v>
       </c>
@@ -1357,79 +1358,79 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="31">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="77.5">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="62">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="46.5">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="124">
       <c r="B31" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="21">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -1446,23 +1447,23 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="46.5">
       <c r="B37" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="31">
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" s="11" t="s">
         <v>34</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="31">
       <c r="B40" s="11" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="B41" s="11" t="s">
         <v>36</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="31">
       <c r="B42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="31">
       <c r="B43" s="11" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="31">
       <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
@@ -1518,10 +1519,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" ht="21">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
@@ -1538,47 +1539,47 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9">
       <c r="B48" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="31">
       <c r="B49" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="31">
       <c r="B50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="8" customFormat="1" ht="62">
       <c r="B51" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="21">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -1595,71 +1596,71 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="B55" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="31">
       <c r="B56" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="8" customFormat="1" ht="46.5">
       <c r="B57" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="31">
       <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="8" customFormat="1">
       <c r="B59" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="21">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
@@ -1676,31 +1677,31 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" ht="248" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="248">
       <c r="B65" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="31">
       <c r="B66" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="46.5">
       <c r="B67" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="18.5">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -1725,7 +1726,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="B71" s="10" t="s">
         <v>62</v>
       </c>
@@ -1733,15 +1734,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" s="10" t="s">
         <v>64</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="B74" s="10" t="s">
         <v>65</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="B75" s="10" t="s">
         <v>66</v>
       </c>
@@ -1765,15 +1766,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="B76" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" s="10" t="s">
         <v>68</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:9" ht="21">
       <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
@@ -1798,47 +1799,47 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="B80" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="B81" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="46.5">
       <c r="B82" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31">
       <c r="B83" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="14" customFormat="1">
       <c r="B84" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.5">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -1849,55 +1850,55 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="31">
       <c r="B87" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="31">
       <c r="B88" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="46.5">
       <c r="B89" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="31">
       <c r="B90" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="B91" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="14" customFormat="1" ht="30">
       <c r="B92" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="14" customFormat="1" ht="18.5">
       <c r="A94" s="17" t="s">
         <v>113</v>
       </c>
@@ -1908,55 +1909,69 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" s="14" customFormat="1">
       <c r="B95" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="15"/>
-    </row>
-    <row r="96" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C95" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="14" customFormat="1">
       <c r="B96" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="15"/>
-    </row>
-    <row r="97" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C96" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="14" customFormat="1">
       <c r="B97" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="15"/>
-    </row>
-    <row r="98" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="14" customFormat="1">
       <c r="B98" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="15"/>
-    </row>
-    <row r="99" spans="1:3" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C98" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="14" customFormat="1" ht="30">
       <c r="B99" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="15"/>
-    </row>
-    <row r="100" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C99" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="14" customFormat="1">
       <c r="B100" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="15"/>
-    </row>
-    <row r="101" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="14" customFormat="1">
       <c r="B101" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="15"/>
-    </row>
-    <row r="102" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="14" customFormat="1">
       <c r="B102" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C102" s="15"/>
     </row>
-    <row r="104" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" ht="18.5">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -1967,79 +1982,79 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="8" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" s="8" customFormat="1" ht="108.5">
       <c r="B105" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="8" customFormat="1" ht="31">
       <c r="B106" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="31">
       <c r="B107" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="31">
       <c r="B108" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="31">
       <c r="B109" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="31">
       <c r="B110" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="14" customFormat="1">
       <c r="B111" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C111" s="15"/>
     </row>
-    <row r="112" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="31">
       <c r="B112" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="31" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="31">
       <c r="B113" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/HCD/USG Playbook Checklist.xlsx
+++ b/docs/HCD/USG Playbook Checklist.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhazelbaker\Documents\GitHub\18f-prototype\docs\HCD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25940" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11740" windowHeight="6390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="175">
   <si>
     <t>Understand what people need</t>
   </si>
@@ -735,11 +740,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,18 +1140,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="87.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="58" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -1163,7 +1168,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="62">
+    <row r="2" spans="1:9" ht="62" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="46.5">
+    <row r="3" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31">
+    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="77.5">
+    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31">
+    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="46.5">
+    <row r="8" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
@@ -1236,7 +1241,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="31">
+    <row r="11" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="46.5">
+    <row r="12" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31">
+    <row r="13" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1285,7 +1290,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="31">
+    <row r="17" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31">
+    <row r="20" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21">
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>105</v>
       </c>
@@ -1358,7 +1363,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="31">
+    <row r="26" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="77.5">
+    <row r="27" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="62">
+    <row r="28" spans="1:9" ht="62" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="46.5">
+    <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="31">
+    <row r="30" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" ht="124">
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="124" x14ac:dyDescent="0.35">
       <c r="B31" s="12" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1419,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B33" s="10" t="s">
         <v>29</v>
       </c>
@@ -1422,7 +1427,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="21">
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -1447,7 +1452,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="46.5">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
         <v>32</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31">
+    <row r="38" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" s="11" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31">
+    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B40" s="11" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="11" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1492,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31">
+    <row r="42" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B42" s="11" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="31">
+    <row r="43" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B43" s="11" t="s">
         <v>38</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="31">
+    <row r="44" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
         <v>39</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
@@ -1519,10 +1524,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="21">
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
@@ -1539,7 +1544,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" s="10" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="31">
+    <row r="49" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B49" s="10" t="s">
         <v>43</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="31">
+    <row r="50" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
         <v>44</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" ht="62">
+    <row r="51" spans="1:9" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="B51" s="12" t="s">
         <v>45</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
         <v>46</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="21">
+    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -1596,7 +1601,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
         <v>48</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="31">
+    <row r="56" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B56" s="10" t="s">
         <v>49</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="8" customFormat="1" ht="46.5">
+    <row r="57" spans="1:9" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B57" s="12" t="s">
         <v>50</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="31">
+    <row r="58" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="8" customFormat="1">
+    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>52</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B60" s="10" t="s">
         <v>53</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" s="10" t="s">
         <v>54</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
         <v>55</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="21">
+    <row r="64" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
@@ -1677,7 +1682,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" ht="248">
+    <row r="65" spans="1:9" ht="248" x14ac:dyDescent="0.35">
       <c r="B65" s="10" t="s">
         <v>57</v>
       </c>
@@ -1685,7 +1690,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="31">
+    <row r="66" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="B66" s="10" t="s">
         <v>58</v>
       </c>
@@ -1693,7 +1698,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="46.5">
+    <row r="67" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B67" s="10" t="s">
         <v>59</v>
       </c>
@@ -1701,7 +1706,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -1709,7 +1714,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.5">
+    <row r="70" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -1726,7 +1731,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B71" s="10" t="s">
         <v>62</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
@@ -1742,7 +1747,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B73" s="10" t="s">
         <v>64</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B74" s="10" t="s">
         <v>65</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B75" s="10" t="s">
         <v>66</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B76" s="10" t="s">
         <v>67</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B77" s="10" t="s">
         <v>68</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="21">
+    <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
@@ -1799,7 +1804,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B80" s="10" t="s">
         <v>70</v>
       </c>
@@ -1807,7 +1812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B81" s="10" t="s">
         <v>71</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="46.5">
+    <row r="82" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B82" s="10" t="s">
         <v>72</v>
       </c>
@@ -1823,7 +1828,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="31">
+    <row r="83" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B83" s="10" t="s">
         <v>73</v>
       </c>
@@ -1831,15 +1836,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="14" customFormat="1">
-      <c r="B84" s="15" t="s">
+    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.5">
+    <row r="86" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="31">
+    <row r="87" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B87" s="10" t="s">
         <v>76</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="31">
+    <row r="88" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B88" s="10" t="s">
         <v>77</v>
       </c>
@@ -1866,7 +1871,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="46.5">
+    <row r="89" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B89" s="10" t="s">
         <v>78</v>
       </c>
@@ -1874,7 +1879,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="31">
+    <row r="90" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B90" s="10" t="s">
         <v>79</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" s="10" t="s">
         <v>80</v>
       </c>
@@ -1890,15 +1895,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="B92" s="15" t="s">
+    <row r="92" spans="1:3" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B92" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="14" customFormat="1" ht="18.5">
+    <row r="94" spans="1:3" s="8" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="17" t="s">
         <v>113</v>
       </c>
@@ -1909,69 +1914,69 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="14" customFormat="1">
-      <c r="B95" s="15" t="s">
+    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="14" customFormat="1">
-      <c r="B96" s="15" t="s">
+    <row r="96" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="14" customFormat="1">
-      <c r="B97" s="15" t="s">
+    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="14" customFormat="1">
-      <c r="B98" s="15" t="s">
+    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="B99" s="15" t="s">
+    <row r="99" spans="1:3" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B99" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="14" customFormat="1">
-      <c r="B100" s="15" t="s">
+    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="14" customFormat="1">
-      <c r="B101" s="15" t="s">
+    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="14" customFormat="1">
-      <c r="B102" s="15" t="s">
+    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C102" s="15"/>
-    </row>
-    <row r="104" spans="1:3" ht="18.5">
+      <c r="C102" s="12"/>
+    </row>
+    <row r="104" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -1982,7 +1987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="8" customFormat="1" ht="108.5">
+    <row r="105" spans="1:3" s="8" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="B105" s="12" t="s">
         <v>92</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="8" customFormat="1" ht="31">
+    <row r="106" spans="1:3" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="B106" s="12" t="s">
         <v>93</v>
       </c>
@@ -1998,7 +2003,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="31">
+    <row r="107" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B107" s="10" t="s">
         <v>94</v>
       </c>
@@ -2006,7 +2011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="31">
+    <row r="108" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B108" s="10" t="s">
         <v>95</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="31">
+    <row r="109" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B109" s="10" t="s">
         <v>96</v>
       </c>
@@ -2022,7 +2027,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="31">
+    <row r="110" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B110" s="10" t="s">
         <v>97</v>
       </c>
@@ -2030,13 +2035,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="14" customFormat="1">
-      <c r="B111" s="15" t="s">
+    <row r="111" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="15"/>
-    </row>
-    <row r="112" spans="1:3" ht="31">
+      <c r="C111" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B112" s="10" t="s">
         <v>99</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="31">
+    <row r="113" spans="2:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B113" s="10" t="s">
         <v>100</v>
       </c>
